--- a/app/config/tables/gridScreen/forms/gridScreen/gridScreen.xlsx
+++ b/app/config/tables/gridScreen/forms/gridScreen/gridScreen.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\gridScreen\forms\gridScreen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="6360" windowWidth="25820" windowHeight="16220" tabRatio="439"/>
+    <workbookView xWindow="1924" yWindow="6362" windowWidth="25815" windowHeight="16220" tabRatio="439" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -402,7 +407,7 @@
     <t>This is a test</t>
   </si>
   <si>
-    <t>../tables/gridScreen/forms/gridScreen/comparison_screen.handlebars</t>
+    <t>../config/tables/gridScreen/forms/gridScreen/comparison_screen.handlebars</t>
   </si>
 </sst>
 </file>
@@ -510,6 +515,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -557,7 +565,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,7 +600,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -803,40 +811,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="40.81640625" customWidth="1"/>
-    <col min="5" max="6" width="17.453125" customWidth="1"/>
-    <col min="7" max="8" width="27.1796875" customWidth="1"/>
-    <col min="9" max="9" width="24.81640625" customWidth="1"/>
-    <col min="10" max="10" width="41.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="67" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="26.375" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="14.453125" customWidth="1"/>
-    <col min="13" max="13" width="20.453125" customWidth="1"/>
+    <col min="12" max="12" width="27.875" customWidth="1"/>
+    <col min="13" max="13" width="20.5" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" customWidth="1"/>
-    <col min="16" max="17" width="18.453125" customWidth="1"/>
+    <col min="15" max="15" width="15.875" customWidth="1"/>
+    <col min="16" max="17" width="18.5" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
     <col min="21" max="21" width="27" customWidth="1"/>
-    <col min="22" max="22" width="15.1796875" customWidth="1"/>
+    <col min="22" max="22" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>66</v>
@@ -848,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>63</v>
@@ -896,13 +906,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
         <v>123</v>
       </c>
@@ -910,9 +920,9 @@
         <v>126</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -926,22 +936,22 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>106</v>
       </c>
+      <c r="J3" s="8"/>
       <c r="K3" s="8" t="s">
         <v>71</v>
       </c>
@@ -957,7 +967,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
     </row>
-    <row r="4" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -967,11 +977,11 @@
       <c r="G4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -988,7 +998,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -998,11 +1008,11 @@
       <c r="G5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -1019,7 +1029,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1029,11 +1039,11 @@
       <c r="G6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -1050,7 +1060,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1060,11 +1070,11 @@
       <c r="G7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1081,7 +1091,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1091,11 +1101,11 @@
       <c r="G8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1112,7 +1122,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1122,11 +1132,11 @@
       <c r="G9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1143,7 +1153,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1153,11 +1163,11 @@
       <c r="G10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -1174,7 +1184,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1184,11 +1194,11 @@
       <c r="G11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1205,7 +1215,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1215,11 +1225,11 @@
       <c r="G12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -1236,7 +1246,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1246,11 +1256,11 @@
       <c r="G13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -1267,243 +1277,243 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="8"/>
       <c r="W14" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="8"/>
       <c r="W15" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="8"/>
       <c r="W16" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="3:23" s="11" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:23" s="11" customFormat="1" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="8"/>
       <c r="L17" s="11" t="s">
         <v>110</v>
       </c>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="8"/>
       <c r="W18" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="8"/>
       <c r="W19" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="8"/>
       <c r="W20" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
+      <c r="H21" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="8"/>
       <c r="W21" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="8"/>
       <c r="W22" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="8"/>
       <c r="W23" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="8"/>
       <c r="W24" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="3:23" s="11" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:23" s="11" customFormat="1" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G25" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="12" t="s">
+      <c r="H25" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="J25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="8"/>
       <c r="L25" s="11" t="s">
         <v>112</v>
       </c>
       <c r="W25" s="8"/>
     </row>
-    <row r="26" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="12" t="s">
+      <c r="H26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="J26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="8"/>
       <c r="W26" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="12" t="s">
+      <c r="H27" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="8"/>
       <c r="W27" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="12" t="s">
+      <c r="H28" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="8"/>
       <c r="W28" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="12" t="s">
+      <c r="H29" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="J29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="8"/>
       <c r="W29" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="12" t="s">
+      <c r="H30" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="J30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="8"/>
       <c r="W30" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="12" t="s">
+      <c r="H31" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="8"/>
       <c r="W31" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1511,16 +1521,16 @@
       <c r="G32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="12" t="s">
+      <c r="H32" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="8"/>
       <c r="W32" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="3:23" s="11" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1528,17 +1538,17 @@
       <c r="G33" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="12" t="s">
+      <c r="H33" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="8"/>
       <c r="L33" s="11" t="s">
         <v>114</v>
       </c>
       <c r="W33" s="12"/>
     </row>
-    <row r="34" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1546,16 +1556,16 @@
       <c r="G34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="12" t="s">
+      <c r="H34" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="J34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="8"/>
       <c r="W34" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1564,20 +1574,20 @@
         <v>59</v>
       </c>
       <c r="H35" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" t="s">
+    </row>
+    <row r="36" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="8"/>
+      <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -1585,89 +1595,89 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="3:23" s="11" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:23" s="11" customFormat="1" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="11" t="s">
         <v>123</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="16" t="s">
+      <c r="H37" s="5"/>
+      <c r="I37" s="16" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="3:23" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1686,13 +1696,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" customWidth="1"/>
-    <col min="2" max="2" width="49.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
@@ -1700,7 +1710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1708,7 +1718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -1716,7 +1726,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -1724,7 +1734,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -1750,14 +1760,14 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1768,7 +1778,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1779,7 +1789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,7 +1800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1801,7 +1811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1812,7 +1822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1823,7 +1833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1834,7 +1844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1845,7 +1855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1856,7 +1866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1867,8 +1877,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1879,7 +1889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1890,7 +1900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1901,7 +1911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1912,7 +1922,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1923,7 +1933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1934,7 +1944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1945,7 +1955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1956,7 +1966,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1967,7 +1977,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1978,8 +1988,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1990,7 +2000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2001,8 +2011,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:3" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>93</v>
       </c>
@@ -2013,7 +2023,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>93</v>
       </c>
@@ -2024,7 +2034,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>93</v>
       </c>
@@ -2049,18 +2059,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -2071,7 +2081,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -2079,7 +2089,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -2087,7 +2097,7 @@
         <v>20140227</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -2095,9 +2105,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/app/config/tables/gridScreen/forms/gridScreen/gridScreen.xlsx
+++ b/app/config/tables/gridScreen/forms/gridScreen/gridScreen.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1924" yWindow="6362" windowWidth="25815" windowHeight="16220" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="1924" yWindow="6362" windowWidth="25815" windowHeight="16220" tabRatio="439" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="calculates" sheetId="2" r:id="rId2"/>
     <sheet name="choices" sheetId="3" r:id="rId3"/>
     <sheet name="settings" sheetId="4" r:id="rId4"/>
+    <sheet name="properties" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="135">
   <si>
     <t>type</t>
   </si>
@@ -179,9 +180,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -408,6 +406,33 @@
   </si>
   <si>
     <t>../config/tables/gridScreen/forms/gridScreen/comparison_screen.handlebars</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>colOrder</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>["item_1","item_2","item_3","item_4","item_5","item_6","item_7","QFC_item_1","QFC_item_2","QFC_item_3","QFC_item_4","QFC_item_5","QFC_item_6","QFC_sum","Safeway_item_1","Safeway_item_2","Safeway_item_3","Safeway_item_4","Safeway_item_5","Safeway_item_6","Safeway_sum","Target_item_1","Target_item_2","Target_item_3","Target_item_4","Target_item_5","Target_item_6","Target_sum","selected_store"]</t>
   </si>
 </sst>
 </file>
@@ -445,6 +470,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -469,7 +495,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -503,6 +529,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,19 +868,19 @@
     <row r="1" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>0</v>
@@ -861,22 +889,22 @@
         <v>2</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="M1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>3</v>
@@ -900,10 +928,10 @@
         <v>9</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -911,13 +939,13 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="5"/>
@@ -946,14 +974,14 @@
         <v>13</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -975,10 +1003,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="8"/>
@@ -995,7 +1023,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1006,10 +1034,10 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="8"/>
@@ -1026,7 +1054,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1037,10 +1065,10 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="8"/>
@@ -1057,7 +1085,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1068,10 +1096,10 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="8"/>
@@ -1088,7 +1116,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1099,10 +1127,10 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="8"/>
@@ -1119,7 +1147,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1130,10 +1158,10 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="8"/>
@@ -1150,7 +1178,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1161,10 +1189,10 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="8"/>
@@ -1181,7 +1209,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1195,7 +1223,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="8"/>
@@ -1212,7 +1240,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1226,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="8"/>
@@ -1243,7 +1271,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1257,7 +1285,7 @@
         <v>16</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="8"/>
@@ -1274,7 +1302,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1282,12 +1310,12 @@
         <v>16</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="8"/>
       <c r="W14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1295,12 +1323,12 @@
         <v>16</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="8"/>
       <c r="W15" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1308,25 +1336,25 @@
         <v>16</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="8"/>
       <c r="W16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="3:23" s="11" customFormat="1" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="8"/>
       <c r="L17" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W17" s="8"/>
     </row>
@@ -1335,12 +1363,12 @@
         <v>16</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="8"/>
       <c r="W18" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1348,12 +1376,12 @@
         <v>16</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="8"/>
       <c r="W19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1361,12 +1389,12 @@
         <v>16</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="8"/>
       <c r="W20" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1374,12 +1402,12 @@
         <v>16</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="8"/>
       <c r="W21" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1387,12 +1415,12 @@
         <v>16</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="8"/>
       <c r="W22" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1400,12 +1428,12 @@
         <v>16</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="8"/>
       <c r="W23" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1413,25 +1441,25 @@
         <v>16</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="8"/>
       <c r="W24" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="3:23" s="11" customFormat="1" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G25" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="8"/>
       <c r="L25" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W25" s="8"/>
     </row>
@@ -1440,12 +1468,12 @@
         <v>16</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="8"/>
       <c r="W26" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1453,12 +1481,12 @@
         <v>16</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="8"/>
       <c r="W27" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1466,12 +1494,12 @@
         <v>16</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="8"/>
       <c r="W28" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1479,12 +1507,12 @@
         <v>16</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="8"/>
       <c r="W29" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1492,12 +1520,12 @@
         <v>16</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="8"/>
       <c r="W30" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1505,12 +1533,12 @@
         <v>16</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="8"/>
       <c r="W31" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1522,12 +1550,12 @@
         <v>16</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="8"/>
       <c r="W32" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1536,15 +1564,15 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="8"/>
       <c r="L33" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W33" s="12"/>
     </row>
@@ -1557,12 +1585,12 @@
         <v>16</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="8"/>
       <c r="W34" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1571,16 +1599,16 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1597,14 +1625,14 @@
     </row>
     <row r="37" spans="3:23" s="11" customFormat="1" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J37" s="7"/>
     </row>
@@ -1704,7 +1732,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
@@ -1720,26 +1748,26 @@
     </row>
     <row r="3" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1769,13 +1797,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -2014,35 +2042,35 @@
     <row r="25" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2059,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2072,26 +2100,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>50</v>
+      <c r="A2" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1">
         <v>20140227</v>
@@ -2099,10 +2127,10 @@
     </row>
     <row r="4" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2116,4 +2144,56 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/config/tables/gridScreen/forms/gridScreen/gridScreen.xlsx
+++ b/app/config/tables/gridScreen/forms/gridScreen/gridScreen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1924" yWindow="6362" windowWidth="25815" windowHeight="16220" tabRatio="439" activeTab="4"/>
+    <workbookView xWindow="1924" yWindow="6362" windowWidth="25815" windowHeight="16220" tabRatio="439" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
   <si>
     <t>type</t>
   </si>
@@ -39,27 +39,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>templatePath</t>
-  </si>
-  <si>
-    <t>inputAttributes.type</t>
-  </si>
-  <si>
-    <t>inputAttributes.min</t>
-  </si>
-  <si>
-    <t>inputAttributes.max</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>examples</t>
   </si>
   <si>
@@ -210,27 +189,12 @@
     <t>branch_label</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>survey</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>display.audio</t>
-  </si>
-  <si>
-    <t>display.image</t>
-  </si>
-  <si>
     <t>screen.screen_type</t>
   </si>
   <si>
-    <t>hideInContents</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -433,12 +397,21 @@
   </si>
   <si>
     <t>["item_1","item_2","item_3","item_4","item_5","item_6","item_7","QFC_item_1","QFC_item_2","QFC_item_3","QFC_item_4","QFC_item_5","QFC_item_6","QFC_sum","Safeway_item_1","Safeway_item_2","Safeway_item_3","Safeway_item_4","Safeway_item_5","Safeway_item_6","Safeway_sum","Target_item_1","Target_item_2","Target_item_3","Target_item_4","Target_item_5","Target_item_6","Target_sum","selected_store"]</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -626,6 +599,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -661,6 +651,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -837,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W107"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -856,31 +863,25 @@
     <col min="10" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
     <col min="12" max="12" width="27.875" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="15.875" customWidth="1"/>
-    <col min="16" max="17" width="18.5" customWidth="1"/>
-    <col min="18" max="18" width="19" customWidth="1"/>
-    <col min="21" max="21" width="27" customWidth="1"/>
-    <col min="22" max="22" width="15.125" customWidth="1"/>
+    <col min="13" max="22" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>0</v>
@@ -889,63 +890,33 @@
         <v>2</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="W1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="5"/>
@@ -953,49 +924,29 @@
       <c r="J2" s="7"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-    </row>
-    <row r="4" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1003,30 +954,20 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1034,30 +975,20 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1065,30 +996,20 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1096,30 +1017,20 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1127,30 +1038,20 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1158,30 +1059,20 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1189,30 +1080,20 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1220,30 +1101,20 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1251,30 +1122,20 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1282,339 +1143,329 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G14" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="8"/>
-      <c r="W14" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G15" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="8"/>
-      <c r="W15" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G16" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="8"/>
-      <c r="W16" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="3:23" s="11" customFormat="1" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" s="11" customFormat="1" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="8"/>
       <c r="L17" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="W17" s="8"/>
-    </row>
-    <row r="18" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G18" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="8"/>
-      <c r="W18" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G19" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="8"/>
-      <c r="W19" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G20" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="8"/>
-      <c r="W20" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G21" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="8"/>
-      <c r="W21" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M21" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G22" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="8"/>
-      <c r="W22" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G23" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="8"/>
-      <c r="W23" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M23" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G24" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="8"/>
-      <c r="W24" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" s="11" customFormat="1" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" s="11" customFormat="1" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G25" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="8"/>
       <c r="L25" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="W25" s="8"/>
-    </row>
-    <row r="26" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G26" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="8"/>
-      <c r="W26" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M26" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G27" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="8"/>
-      <c r="W27" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M27" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G28" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="8"/>
-      <c r="W28" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="3:23" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M28" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G29" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="8"/>
-      <c r="W29" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M29" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G30" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="8"/>
-      <c r="W30" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M30" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G31" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="8"/>
-      <c r="W31" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M31" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="8"/>
-      <c r="W32" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="3:23" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M32" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="8"/>
       <c r="L33" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="W33" s="12"/>
-    </row>
-    <row r="34" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="8"/>
-      <c r="W34" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M34" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="8"/>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -1623,30 +1474,30 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="3:23" s="11" customFormat="1" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:13" s="11" customFormat="1" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="3:23" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1732,42 +1583,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1797,280 +1648,280 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2087,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2100,26 +1951,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
         <v>20140227</v>
@@ -2127,10 +1978,10 @@
     </row>
     <row r="4" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2150,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2161,36 +2012,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/gridScreen/forms/gridScreen/gridScreen.xlsx
+++ b/app/config/tables/gridScreen/forms/gridScreen/gridScreen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1924" yWindow="6362" windowWidth="25815" windowHeight="16220" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="1924" yWindow="6362" windowWidth="25815" windowHeight="16220" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="125">
   <si>
     <t>type</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>form_version</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>setting_name</t>
@@ -869,19 +866,19 @@
     <row r="1" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>0</v>
@@ -890,19 +887,19 @@
         <v>2</v>
       </c>
       <c r="I1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -910,13 +907,13 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="5"/>
@@ -935,14 +932,14 @@
         <v>6</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" s="8"/>
     </row>
@@ -954,17 +951,17 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -975,17 +972,17 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -996,17 +993,17 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1017,17 +1014,17 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1038,17 +1035,17 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1059,17 +1056,17 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1080,17 +1077,17 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1104,14 +1101,14 @@
         <v>9</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1125,14 +1122,14 @@
         <v>9</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1146,14 +1143,14 @@
         <v>9</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1161,12 +1158,12 @@
         <v>9</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="8"/>
       <c r="M14" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1174,12 +1171,12 @@
         <v>9</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="8"/>
       <c r="M15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1187,25 +1184,25 @@
         <v>9</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="8"/>
       <c r="M16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="3:13" s="11" customFormat="1" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="8"/>
       <c r="L17" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M17" s="8"/>
     </row>
@@ -1214,12 +1211,12 @@
         <v>9</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="8"/>
       <c r="M18" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1227,12 +1224,12 @@
         <v>9</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="8"/>
       <c r="M19" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1240,12 +1237,12 @@
         <v>9</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="8"/>
       <c r="M20" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1253,12 +1250,12 @@
         <v>9</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="8"/>
       <c r="M21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1266,12 +1263,12 @@
         <v>9</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="8"/>
       <c r="M22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1279,12 +1276,12 @@
         <v>9</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="8"/>
       <c r="M23" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1292,25 +1289,25 @@
         <v>9</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="8"/>
       <c r="M24" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="3:13" s="11" customFormat="1" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G25" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="8"/>
       <c r="L25" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M25" s="8"/>
     </row>
@@ -1319,12 +1316,12 @@
         <v>9</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="8"/>
       <c r="M26" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1332,12 +1329,12 @@
         <v>9</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="8"/>
       <c r="M27" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1345,12 +1342,12 @@
         <v>9</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="8"/>
       <c r="M28" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1358,12 +1355,12 @@
         <v>9</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="8"/>
       <c r="M29" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1371,12 +1368,12 @@
         <v>9</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="8"/>
       <c r="M30" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1384,12 +1381,12 @@
         <v>9</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="8"/>
       <c r="M31" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1401,12 +1398,12 @@
         <v>9</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="8"/>
       <c r="M32" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="3:13" s="11" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1415,15 +1412,15 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="8"/>
       <c r="L33" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M33" s="12"/>
     </row>
@@ -1436,12 +1433,12 @@
         <v>9</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="8"/>
       <c r="M34" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1450,16 +1447,16 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="3:13" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -1476,14 +1473,14 @@
     </row>
     <row r="37" spans="3:13" s="11" customFormat="1" ht="17.55" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J37" s="7"/>
     </row>
@@ -1583,7 +1580,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -1599,26 +1596,26 @@
     </row>
     <row r="3" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1635,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1648,13 +1645,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
@@ -1893,35 +1890,35 @@
     <row r="25" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:3" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1951,21 +1948,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1978,10 +1975,10 @@
     </row>
     <row r="4" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2012,13 +2009,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>117</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>0</v>
@@ -2029,19 +2026,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
